--- a/data/trans_orig/P36B14_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD2F54C1-E7C8-45AB-B799-8BC47DA21DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80004B88-4954-4A4D-B52A-BCACF4BEF391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{735A89DC-A9CF-4EF5-924F-12C6970A4D0F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{21F705B1-EF14-4179-8320-3373E2403393}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="202">
   <si>
     <t>Población según el número de veces a la semana que consume los vegetales cocinados, la pasta, el arroz u otros platos aderezados con una salsa de tomate, ajo, cebolla o puerro elaborada a fuego lento con aceite de oliva (sofrito) en 2023 (Tasa respuesta: 99,62%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>5,82%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
   </si>
   <si>
     <t>Una por semana</t>
@@ -104,385 +104,385 @@
     <t>48,34%</t>
   </si>
   <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
   </si>
   <si>
     <t>46,04%</t>
   </si>
   <si>
-    <t>39,19%</t>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>Dos o más por semana</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
   </si>
   <si>
     <t>53,63%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>Dos o más por semana</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>10,44%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>7,36%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
   </si>
   <si>
     <t>47,51%</t>
   </si>
   <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
   </si>
   <si>
     <t>42,63%</t>
   </si>
   <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
   </si>
   <si>
     <t>45,08%</t>
   </si>
   <si>
-    <t>47,75%</t>
+    <t>47,59%</t>
   </si>
   <si>
     <t>44,35%</t>
   </si>
   <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
+    <t>43,93%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -491,151 +491,154 @@
     <t>9,85%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
   </si>
   <si>
     <t>47,38%</t>
   </si>
   <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
   </si>
   <si>
     <t>42,12%</t>
   </si>
   <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
   </si>
   <si>
     <t>44,23%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
   </si>
   <si>
     <t>42,77%</t>
   </si>
   <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
   </si>
   <si>
     <t>47,48%</t>
   </si>
   <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
   </si>
   <si>
     <t>45,58%</t>
   </si>
   <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>10,52%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>43,9%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
   </si>
   <si>
     <t>43,09%</t>
   </si>
   <si>
-    <t>40,57%</t>
+    <t>40,5%</t>
   </si>
   <si>
     <t>44,55%</t>
   </si>
   <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
   </si>
   <si>
     <t>47,8%</t>
   </si>
   <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1050,7 +1053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176FE571-8B1A-4C99-AFB9-281A849E9165}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2499DB8-E837-4723-90BD-CB63B44591F5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1637,13 +1640,13 @@
         <v>244942</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>330</v>
@@ -1652,13 +1655,13 @@
         <v>242661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>564</v>
@@ -1667,13 +1670,13 @@
         <v>487602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1688,13 +1691,13 @@
         <v>267068</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>419</v>
@@ -1703,13 +1706,13 @@
         <v>267446</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>688</v>
@@ -1718,13 +1721,13 @@
         <v>534514</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,7 +1783,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1792,13 +1795,13 @@
         <v>60495</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>98</v>
@@ -1807,13 +1810,13 @@
         <v>63221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>153</v>
@@ -1822,13 +1825,13 @@
         <v>123716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1843,13 +1846,13 @@
         <v>258627</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>416</v>
@@ -1858,13 +1861,13 @@
         <v>305584</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>657</v>
@@ -1873,13 +1876,13 @@
         <v>564210</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,13 +1897,13 @@
         <v>401957</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>625</v>
@@ -1909,13 +1912,13 @@
         <v>377196</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>992</v>
@@ -1924,13 +1927,13 @@
         <v>779152</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,7 +1989,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1998,13 +2001,13 @@
         <v>48678</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>93</v>
@@ -2013,13 +2016,13 @@
         <v>55634</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>145</v>
@@ -2028,13 +2031,13 @@
         <v>104312</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,13 +2052,13 @@
         <v>284150</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>403</v>
@@ -2064,13 +2067,13 @@
         <v>254033</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>701</v>
@@ -2079,13 +2082,13 @@
         <v>538184</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,13 +2103,13 @@
         <v>265218</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>504</v>
@@ -2115,13 +2118,13 @@
         <v>286235</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>814</v>
@@ -2130,13 +2133,13 @@
         <v>551454</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2237,13 @@
         <v>174518</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2258,13 @@
         <v>326835</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>782</v>
@@ -2270,13 +2273,13 @@
         <v>431442</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>1265</v>
@@ -2285,13 +2288,13 @@
         <v>758277</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2309,13 @@
         <v>295027</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>720</v>
@@ -2321,13 +2324,13 @@
         <v>486393</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>1159</v>
@@ -2336,13 +2339,13 @@
         <v>781421</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2413,13 @@
         <v>291007</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>530</v>
@@ -2425,10 +2428,10 @@
         <v>361728</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>181</v>
@@ -2512,7 +2515,7 @@
         <v>1600992</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>194</v>
@@ -2527,13 +2530,13 @@
         <v>1824372</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="M30" s="7">
         <v>4203</v>
@@ -2542,13 +2545,13 @@
         <v>3425364</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,7 +2607,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
